--- a/vesselDetails10.xlsx
+++ b/vesselDetails10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F921E0FD-5A3B-4089-B0E9-35AD37AE5392}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F01273D-43B5-4912-8043-33A2093119E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,8 +502,7 @@
         <v>43102.833333333336</v>
       </c>
       <c r="F2">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,3),1,2,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
         <v>4800</v>
@@ -533,14 +532,13 @@
         <v>43102.895833333336</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" ca="1" si="2">CHOOSE(RANDBETWEEN(1,3),1,2,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>4800</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H11" si="3">G3*0.15</f>
+        <f t="shared" ref="H3:H11" si="2">G3*0.15</f>
         <v>720</v>
       </c>
       <c r="I3" s="6"/>
@@ -564,14 +562,13 @@
         <v>43102.958333333336</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>4800</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I4" s="6"/>
@@ -595,14 +592,13 @@
         <v>43103.020833333336</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="G5" s="3">
         <v>4800</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I5" s="6"/>
@@ -626,14 +622,13 @@
         <v>43103.083333333336</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
         <v>4800</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I6" s="6"/>
@@ -657,14 +652,13 @@
         <v>43103.145833333336</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>4800</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I7" s="6"/>
@@ -688,14 +682,13 @@
         <v>43103.229166666664</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <v>4800</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I8" s="6"/>
@@ -719,14 +712,13 @@
         <v>43103.291666666664</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
         <v>4800</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I9" s="6"/>
@@ -750,14 +742,13 @@
         <v>43103.354166666664</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
         <v>4800</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I10" s="6"/>
@@ -781,14 +772,13 @@
         <v>43103.395833333336</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>4800</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I11" s="6"/>
